--- a/exports/lsmean_files/LU 6 Early-21 - LSMeans.xlsx
+++ b/exports/lsmean_files/LU 6 Early-21 - LSMeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seed weight (grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq</t>
   </si>
   <si>
     <t xml:space="preserve">Test weight</t>
@@ -541,31 +544,34 @@
     <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="13.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="19.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="7.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="13.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="15.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="19.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="13.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="19.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="13.71" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="15.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="7.71" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="13.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="15.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="19.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="13.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="7.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="13.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="15.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="19.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="13.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="19.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="11.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="13.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="15.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="7.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="13.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="15.71" hidden="0" customWidth="1"/>
     <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
-    <col min="27" max="27" width="11.71" hidden="0" customWidth="1"/>
-    <col min="28" max="28" width="13.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="13.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="19.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="5.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="11.71" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="13.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -575,10 +581,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -586,17 +592,20 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -630,63 +639,72 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>31</v>
@@ -710,69 +728,78 @@
         <v>15.9</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>54.3</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>3032.9</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="L4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M4" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>40.7</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>2482.8</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>40.3</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>63.1</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>2757.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>37.5</v>
@@ -796,69 +823,78 @@
         <v>16</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>2850.1</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>67.6</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>14.8</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="S5" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>1971.8</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="U5" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>67.5</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>2410.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>32</v>
@@ -882,69 +918,78 @@
         <v>13.3</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>2886.4</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>11.6</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="S6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>2259.4</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="U6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X6" s="1" t="n">
         <v>19.5</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>43.7</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>2572.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>31</v>
@@ -968,69 +1013,78 @@
         <v>16.1</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>54.1</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>2795.5</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>66.8</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>13.1</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="S7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>2039.8</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>43.2</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>66.8</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>54.9</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>2417.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>47</v>
@@ -1054,69 +1108,78 @@
         <v>17.3</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>2074.1</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="S8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>1084</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>41.9</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>1579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>35</v>
@@ -1140,69 +1203,78 @@
         <v>13.2</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>2683.6</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>68.7</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>12.4</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="S9" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>2184.4</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>34.7</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>19.5</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>43.9</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>67.5</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>12.8</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>2434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>35</v>
@@ -1226,69 +1298,78 @@
         <v>12.8</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>2317.2</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="L10" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="M10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>48.6</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>68.3</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="R10" s="1" t="n">
         <v>12.6</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="S10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>1765.9</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="U10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X10" s="1" t="n">
         <v>19.3</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>12.7</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>2041.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>34.5</v>
@@ -1312,69 +1393,78 @@
         <v>16.8</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>2548</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="L11" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="M11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>67.4</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="S11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>1936.9</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>33.7</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>45.6</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>66.6</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD11" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>2242.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>33</v>
@@ -1398,69 +1488,78 @@
         <v>16.3</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>2993.2</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="L12" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>22.5</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>67.5</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="S12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>1958.2</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>44.7</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>66.6</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>15.3</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD12" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>2475.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>38.5</v>
@@ -1484,69 +1583,78 @@
         <v>16.1</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>2602.7</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="R13" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="S13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>1984.9</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="U13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>22.3</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>43.7</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>66.1</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>15.6</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>58.4</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>2293.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>38</v>
@@ -1570,69 +1678,78 @@
         <v>14.2</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>2657.5</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="L14" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>66.6</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="R14" s="1" t="n">
         <v>12.8</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="S14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>1839.3</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>25.3</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>2248.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>38</v>
@@ -1656,69 +1773,78 @@
         <v>14.6</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>2563.5</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="L15" s="1" t="n">
         <v>46.5</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>68.2</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="R15" s="1" t="n">
         <v>13.9</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="S15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>1457.1</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>67.4</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>2010.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>32.5</v>
@@ -1742,69 +1868,78 @@
         <v>15.1</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>2610.2</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="L16" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="M16" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>45.7</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="R16" s="1" t="n">
         <v>13.1</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="S16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>2305.8</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>32.7</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>2458</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>34.5</v>
@@ -1828,69 +1963,78 @@
         <v>15.4</v>
       </c>
       <c r="I17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>2890.4</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="L17" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="M17" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>41.9</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>65.1</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="S17" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T17" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>2357.7</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>19.3</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>41.3</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>64.6</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD17" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>2624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>37.5</v>
@@ -1914,69 +2058,78 @@
         <v>16.2</v>
       </c>
       <c r="I18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>2894.2</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="L18" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>43.6</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>67.2</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="R18" s="1" t="n">
         <v>15.1</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="S18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>55.1</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>2283.4</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>35.2</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>15.7</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD18" s="1" t="n">
         <v>55.2</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>2588.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>37.5</v>
@@ -2000,69 +2153,78 @@
         <v>12.6</v>
       </c>
       <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="K19" s="1" t="n">
         <v>2617.8</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="L19" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="M19" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>19.5</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>66.4</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="S19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>2043.4</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>35.2</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>41.6</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="AA19" s="1" t="n">
         <v>65.5</v>
       </c>
-      <c r="Z19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <v>12.4</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AC19" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="AB19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>2330.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>35</v>
@@ -2086,69 +2248,78 @@
         <v>14.4</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>2813.9</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="L20" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N20" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="R20" s="1" t="n">
         <v>12.6</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="S20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>2062.9</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>29.2</v>
       </c>
-      <c r="U20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V20" s="1" t="n">
+      <c r="W20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X20" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>64.8</v>
       </c>
-      <c r="Z20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AC20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>2438.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>36</v>
@@ -2172,69 +2343,78 @@
         <v>14.8</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>2820.4</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="L21" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="M21" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>19.7</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>46.6</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="R21" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="R21" s="1" t="n">
+      <c r="S21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" s="1" t="n">
         <v>58.7</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>1984.2</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>34.7</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>20.4</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="AA21" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AC21" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="AB21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>2402.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43</v>
@@ -2258,69 +2438,78 @@
         <v>14.6</v>
       </c>
       <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>2679.7</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="L22" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="M22" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>64.4</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="R22" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="R22" s="1" t="n">
+      <c r="S22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>1993.7</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>20.4</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="AA22" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="Z22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AC22" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="AB22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>2336.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>41</v>
@@ -2344,69 +2533,78 @@
         <v>16.7</v>
       </c>
       <c r="I23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>2809.8</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="L23" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="M23" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="N23" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>20.6</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>66.4</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="R23" s="1" t="n">
         <v>16.6</v>
       </c>
-      <c r="R23" s="1" t="n">
+      <c r="S23" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T23" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="U23" s="1" t="n">
         <v>2041.7</v>
       </c>
-      <c r="T23" s="1" t="n">
+      <c r="V23" s="1" t="n">
         <v>42.2</v>
       </c>
-      <c r="U23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V23" s="1" t="n">
+      <c r="W23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X23" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>44.6</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <v>16.6</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AC23" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD23" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="AB23" s="1" t="n">
+      <c r="AE23" s="1" t="n">
         <v>2425.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>39.5</v>
@@ -2430,69 +2628,78 @@
         <v>13.1</v>
       </c>
       <c r="I24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>2387.2</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="L24" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="M24" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="N24" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="O24" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>65.9</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="R24" s="1" t="n">
         <v>11.9</v>
       </c>
-      <c r="R24" s="1" t="n">
+      <c r="S24" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="U24" s="1" t="n">
         <v>1824.6</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="V24" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="W24" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="V24" s="1" t="n">
+      <c r="X24" s="1" t="n">
         <v>25.3</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="Y24" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="Y24" s="1" t="n">
+      <c r="AA24" s="1" t="n">
         <v>65.3</v>
       </c>
-      <c r="Z24" s="1" t="n">
+      <c r="AB24" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AC24" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD24" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="AB24" s="1" t="n">
+      <c r="AE24" s="1" t="n">
         <v>2105.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>40.5</v>
@@ -2516,69 +2723,78 @@
         <v>13.8</v>
       </c>
       <c r="I25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="K25" s="1" t="n">
         <v>2777.4</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="L25" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="P25" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>65.7</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="R25" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="S25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T25" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="U25" s="1" t="n">
         <v>1998.1</v>
       </c>
-      <c r="T25" s="1" t="n">
+      <c r="V25" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="U25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V25" s="1" t="n">
+      <c r="W25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="W25" s="1" t="n">
+      <c r="Y25" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X25" s="1" t="n">
+      <c r="Z25" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="Y25" s="1" t="n">
+      <c r="AA25" s="1" t="n">
         <v>64.9</v>
       </c>
-      <c r="Z25" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <v>13.1</v>
       </c>
-      <c r="AA25" s="1" t="n">
+      <c r="AC25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD25" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB25" s="1" t="n">
+      <c r="AE25" s="1" t="n">
         <v>2387.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>36.5</v>
@@ -2602,69 +2818,78 @@
         <v>13.2</v>
       </c>
       <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>2871.1</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="L26" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="O26" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="P26" s="1" t="n">
         <v>46.4</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="Q26" s="1" t="n">
         <v>68.1</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="R26" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="R26" s="1" t="n">
+      <c r="S26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="U26" s="1" t="n">
         <v>1784.3</v>
       </c>
-      <c r="T26" s="1" t="n">
+      <c r="V26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="W26" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="X26" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="W26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="X26" s="1" t="n">
+      <c r="Z26" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Y26" s="1" t="n">
+      <c r="AA26" s="1" t="n">
         <v>67.2</v>
       </c>
-      <c r="Z26" s="1" t="n">
+      <c r="AB26" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="AA26" s="1" t="n">
+      <c r="AC26" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD26" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AE26" s="1" t="n">
         <v>2327.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>39.5</v>
@@ -2688,69 +2913,78 @@
         <v>13.9</v>
       </c>
       <c r="I27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>2822.4</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="L27" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="M27" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="O27" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="P27" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="Q27" s="1" t="n">
         <v>68.4</v>
       </c>
-      <c r="Q27" s="1" t="n">
+      <c r="R27" s="1" t="n">
         <v>13.2</v>
       </c>
-      <c r="R27" s="1" t="n">
+      <c r="S27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T27" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="U27" s="1" t="n">
         <v>1853.5</v>
       </c>
-      <c r="T27" s="1" t="n">
+      <c r="V27" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="W27" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V27" s="1" t="n">
+      <c r="X27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="Y27" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="X27" s="1" t="n">
+      <c r="Z27" s="1" t="n">
         <v>45.4</v>
       </c>
-      <c r="Y27" s="1" t="n">
+      <c r="AA27" s="1" t="n">
         <v>67.5</v>
       </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AC27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD27" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AE27" s="1" t="n">
         <v>2338</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>37.5</v>
@@ -2774,69 +3008,78 @@
         <v>15.1</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="K28" s="1" t="n">
         <v>2900.3</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="L28" s="1" t="n">
         <v>35.5</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="M28" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="N28" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="O28" s="1" t="n">
         <v>20.7</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="P28" s="1" t="n">
         <v>46.1</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="Q28" s="1" t="n">
         <v>66.8</v>
       </c>
-      <c r="Q28" s="1" t="n">
+      <c r="R28" s="1" t="n">
         <v>13.9</v>
       </c>
-      <c r="R28" s="1" t="n">
+      <c r="S28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T28" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="S28" s="1" t="n">
+      <c r="U28" s="1" t="n">
         <v>1951.6</v>
       </c>
-      <c r="T28" s="1" t="n">
+      <c r="V28" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="U28" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V28" s="1" t="n">
+      <c r="W28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X28" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="Y28" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="X28" s="1" t="n">
+      <c r="Z28" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="Y28" s="1" t="n">
+      <c r="AA28" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="Z28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AC28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD28" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AE28" s="1" t="n">
         <v>2426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>34</v>
@@ -2860,69 +3103,78 @@
         <v>14</v>
       </c>
       <c r="I29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="K29" s="1" t="n">
         <v>2699.1</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="L29" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="O29" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>45.6</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="Q29" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Q29" s="1" t="n">
+      <c r="R29" s="1" t="n">
         <v>13.3</v>
       </c>
-      <c r="R29" s="1" t="n">
+      <c r="S29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="S29" s="1" t="n">
+      <c r="U29" s="1" t="n">
         <v>1929</v>
       </c>
-      <c r="T29" s="1" t="n">
+      <c r="V29" s="1" t="n">
         <v>35.2</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="W29" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V29" s="1" t="n">
+      <c r="X29" s="1" t="n">
         <v>25.3</v>
       </c>
-      <c r="W29" s="1" t="n">
+      <c r="Y29" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X29" s="1" t="n">
+      <c r="Z29" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="Y29" s="1" t="n">
+      <c r="AA29" s="1" t="n">
         <v>64.5</v>
       </c>
-      <c r="Z29" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="AA29" s="1" t="n">
+      <c r="AC29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD29" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AE29" s="1" t="n">
         <v>2314.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>40.5</v>
@@ -2946,69 +3198,78 @@
         <v>14.4</v>
       </c>
       <c r="I30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="K30" s="1" t="n">
         <v>2667.4</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="L30" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="M30" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="N30" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="O30" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="P30" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="Q30" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="R30" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="R30" s="1" t="n">
+      <c r="S30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="S30" s="1" t="n">
+      <c r="U30" s="1" t="n">
         <v>1581.1</v>
       </c>
-      <c r="T30" s="1" t="n">
+      <c r="V30" s="1" t="n">
         <v>41.5</v>
       </c>
-      <c r="U30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V30" s="1" t="n">
+      <c r="W30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X30" s="1" t="n">
         <v>26.3</v>
       </c>
-      <c r="W30" s="1" t="n">
+      <c r="Y30" s="1" t="n">
         <v>20.4</v>
       </c>
-      <c r="X30" s="1" t="n">
+      <c r="Z30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="Y30" s="1" t="n">
+      <c r="AA30" s="1" t="n">
         <v>66.4</v>
       </c>
-      <c r="Z30" s="1" t="n">
+      <c r="AB30" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AC30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD30" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB30" s="1" t="n">
+      <c r="AE30" s="1" t="n">
         <v>2124.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>40.5</v>
@@ -3032,69 +3293,78 @@
         <v>14.4</v>
       </c>
       <c r="I31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="K31" s="1" t="n">
         <v>2845.3</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="L31" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="M31" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M31" s="1" t="n">
+      <c r="N31" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="O31" s="1" t="n">
         <v>20.5</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="P31" s="1" t="n">
         <v>45.7</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="Q31" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="R31" s="1" t="n">
         <v>12.8</v>
       </c>
-      <c r="R31" s="1" t="n">
+      <c r="S31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="U31" s="1" t="n">
         <v>2254.6</v>
       </c>
-      <c r="T31" s="1" t="n">
+      <c r="V31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="U31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="X31" s="1" t="n">
         <v>26.3</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="Y31" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="Z31" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="Y31" s="1" t="n">
+      <c r="AA31" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="Z31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AC31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB31" s="1" t="n">
+      <c r="AE31" s="1" t="n">
         <v>2550</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>34</v>
@@ -3118,69 +3388,78 @@
         <v>11.7</v>
       </c>
       <c r="I32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="K32" s="1" t="n">
         <v>2752.1</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="L32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="M32" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="N32" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="O32" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="P32" s="1" t="n">
         <v>46.8</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="Q32" s="1" t="n">
         <v>67.7</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="R32" s="1" t="n">
         <v>11.3</v>
       </c>
-      <c r="R32" s="1" t="n">
+      <c r="S32" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T32" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="S32" s="1" t="n">
+      <c r="U32" s="1" t="n">
         <v>2109.4</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="V32" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="U32" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V32" s="1" t="n">
+      <c r="W32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="W32" s="1" t="n">
+      <c r="Y32" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="X32" s="1" t="n">
+      <c r="Z32" s="1" t="n">
         <v>45.1</v>
       </c>
-      <c r="Y32" s="1" t="n">
+      <c r="AA32" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="Z32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AC32" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD32" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="AB32" s="1" t="n">
+      <c r="AE32" s="1" t="n">
         <v>2430.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>38.5</v>
@@ -3204,69 +3483,78 @@
         <v>15.8</v>
       </c>
       <c r="I33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="K33" s="1" t="n">
         <v>2545.5</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="L33" s="1" t="n">
         <v>33.5</v>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="M33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="N33" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="O33" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="P33" s="1" t="n">
         <v>41.3</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="Q33" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="Q33" s="1" t="n">
+      <c r="R33" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="R33" s="1" t="n">
+      <c r="S33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="U33" s="1" t="n">
         <v>1854.1</v>
       </c>
-      <c r="T33" s="1" t="n">
+      <c r="V33" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="W33" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V33" s="1" t="n">
+      <c r="X33" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="Y33" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="X33" s="1" t="n">
+      <c r="Z33" s="1" t="n">
         <v>40.7</v>
       </c>
-      <c r="Y33" s="1" t="n">
+      <c r="AA33" s="1" t="n">
         <v>64.1</v>
       </c>
-      <c r="Z33" s="1" t="n">
+      <c r="AB33" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="AA33" s="1" t="n">
+      <c r="AC33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD33" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="AB33" s="1" t="n">
+      <c r="AE33" s="1" t="n">
         <v>2199.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>35.5</v>
@@ -3290,69 +3578,78 @@
         <v>15.6</v>
       </c>
       <c r="I34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="K34" s="1" t="n">
         <v>2554.9</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="L34" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="L34" s="1" t="n">
+      <c r="M34" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="M34" s="1" t="n">
+      <c r="N34" s="1" t="n">
         <v>20.5</v>
       </c>
-      <c r="N34" s="1" t="n">
+      <c r="O34" s="1" t="n">
         <v>21.2</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="P34" s="1" t="n">
         <v>44.7</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="Q34" s="1" t="n">
         <v>65.9</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="R34" s="1" t="n">
         <v>14.9</v>
       </c>
-      <c r="R34" s="1" t="n">
+      <c r="S34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="U34" s="1" t="n">
         <v>1690.5</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="V34" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="W34" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V34" s="1" t="n">
+      <c r="X34" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="Y34" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="X34" s="1" t="n">
+      <c r="Z34" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="Y34" s="1" t="n">
+      <c r="AA34" s="1" t="n">
         <v>65.5</v>
       </c>
-      <c r="Z34" s="1" t="n">
+      <c r="AB34" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="AA34" s="1" t="n">
+      <c r="AC34" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD34" s="1" t="n">
         <v>57.2</v>
       </c>
-      <c r="AB34" s="1" t="n">
+      <c r="AE34" s="1" t="n">
         <v>2122.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>35</v>
@@ -3376,69 +3673,78 @@
         <v>16.8</v>
       </c>
       <c r="I35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="K35" s="1" t="n">
         <v>2814.1</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="L35" s="1" t="n">
         <v>22.5</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N35" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="O35" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="P35" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="Q35" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="R35" s="1" t="n">
         <v>15.3</v>
       </c>
-      <c r="R35" s="1" t="n">
+      <c r="S35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="U35" s="1" t="n">
         <v>2318.1</v>
       </c>
-      <c r="T35" s="1" t="n">
+      <c r="V35" s="1" t="n">
         <v>28.7</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="W35" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V35" s="1" t="n">
+      <c r="X35" s="1" t="n">
         <v>18.8</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="Y35" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="X35" s="1" t="n">
+      <c r="Z35" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="Y35" s="1" t="n">
+      <c r="AA35" s="1" t="n">
         <v>66.9</v>
       </c>
-      <c r="Z35" s="1" t="n">
+      <c r="AB35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AC35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD35" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="AB35" s="1" t="n">
+      <c r="AE35" s="1" t="n">
         <v>2566.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>32.5</v>
@@ -3462,69 +3768,78 @@
         <v>10.7</v>
       </c>
       <c r="I36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="K36" s="1" t="n">
         <v>2098.3</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="L36" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="M36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="O36" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="P36" s="1" t="n">
         <v>41.9</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="Q36" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="R36" s="1" t="n">
         <v>11.1</v>
       </c>
-      <c r="R36" s="1" t="n">
+      <c r="S36" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T36" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="U36" s="1" t="n">
         <v>1729.1</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="V36" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="W36" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V36" s="1" t="n">
+      <c r="X36" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="W36" s="1" t="n">
+      <c r="Y36" s="1" t="n">
         <v>22.3</v>
       </c>
-      <c r="X36" s="1" t="n">
+      <c r="Z36" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="Y36" s="1" t="n">
+      <c r="AA36" s="1" t="n">
         <v>63.5</v>
       </c>
-      <c r="Z36" s="1" t="n">
+      <c r="AB36" s="1" t="n">
         <v>10.9</v>
       </c>
-      <c r="AA36" s="1" t="n">
+      <c r="AC36" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD36" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="AB36" s="1" t="n">
+      <c r="AE36" s="1" t="n">
         <v>1913.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>29</v>
@@ -3548,69 +3863,78 @@
         <v>13</v>
       </c>
       <c r="I37" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="K37" s="1" t="n">
         <v>2835.5</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="L37" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="M37" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="N37" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="P37" s="1" t="n">
         <v>46.3</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="Q37" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="Q37" s="1" t="n">
+      <c r="R37" s="1" t="n">
         <v>12.4</v>
       </c>
-      <c r="R37" s="1" t="n">
+      <c r="S37" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T37" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="U37" s="1" t="n">
         <v>2025.5</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="V37" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="U37" s="1" t="n">
+      <c r="W37" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="X37" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="W37" s="1" t="n">
+      <c r="Y37" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="X37" s="1" t="n">
+      <c r="Z37" s="1" t="n">
         <v>44.8</v>
       </c>
-      <c r="Y37" s="1" t="n">
+      <c r="AA37" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Z37" s="1" t="n">
+      <c r="AB37" s="1" t="n">
         <v>12.7</v>
       </c>
-      <c r="AA37" s="1" t="n">
+      <c r="AC37" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD37" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="AB37" s="1" t="n">
+      <c r="AE37" s="1" t="n">
         <v>2430.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>32.5</v>
@@ -3634,69 +3958,78 @@
         <v>12.3</v>
       </c>
       <c r="I38" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="K38" s="1" t="n">
         <v>2978.7</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="L38" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="M38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M38" s="1" t="n">
+      <c r="N38" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="O38" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="P38" s="1" t="n">
         <v>46.9</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="Q38" s="1" t="n">
         <v>68.3</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="R38" s="1" t="n">
         <v>11.9</v>
       </c>
-      <c r="R38" s="1" t="n">
+      <c r="S38" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T38" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="U38" s="1" t="n">
         <v>2247.9</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="X38" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="Y38" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="Z38" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="Y38" s="1" t="n">
+      <c r="AA38" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="Z38" s="1" t="n">
+      <c r="AB38" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="AA38" s="1" t="n">
+      <c r="AC38" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD38" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB38" s="1" t="n">
+      <c r="AE38" s="1" t="n">
         <v>2613.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>35</v>
@@ -3720,69 +4053,78 @@
         <v>15.1</v>
       </c>
       <c r="I39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J39" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="K39" s="1" t="n">
         <v>2633.9</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="L39" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N39" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="O39" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="O39" s="1" t="n">
+      <c r="P39" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="P39" s="1" t="n">
+      <c r="Q39" s="1" t="n">
         <v>67.8</v>
       </c>
-      <c r="Q39" s="1" t="n">
+      <c r="R39" s="1" t="n">
         <v>15.3</v>
       </c>
-      <c r="R39" s="1" t="n">
+      <c r="S39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T39" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="U39" s="1" t="n">
         <v>2205.4</v>
       </c>
-      <c r="T39" s="1" t="n">
+      <c r="V39" s="1" t="n">
         <v>32.5</v>
       </c>
-      <c r="U39" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V39" s="1" t="n">
+      <c r="W39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X39" s="1" t="n">
         <v>18.8</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="Y39" s="1" t="n">
         <v>24.3</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="Z39" s="1" t="n">
         <v>42.8</v>
       </c>
-      <c r="Y39" s="1" t="n">
+      <c r="AA39" s="1" t="n">
         <v>67.1</v>
       </c>
-      <c r="Z39" s="1" t="n">
+      <c r="AB39" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="AA39" s="1" t="n">
+      <c r="AC39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD39" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB39" s="1" t="n">
+      <c r="AE39" s="1" t="n">
         <v>2419.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>37</v>
@@ -3806,69 +4148,78 @@
         <v>12.3</v>
       </c>
       <c r="I40" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J40" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="K40" s="1" t="n">
         <v>2884.1</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="L40" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="L40" s="1" t="n">
+      <c r="M40" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="M40" s="1" t="n">
+      <c r="N40" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="O40" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O40" s="1" t="n">
+      <c r="P40" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="P40" s="1" t="n">
+      <c r="Q40" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="Q40" s="1" t="n">
+      <c r="R40" s="1" t="n">
         <v>11.9</v>
       </c>
-      <c r="R40" s="1" t="n">
+      <c r="S40" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T40" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="U40" s="1" t="n">
         <v>1803.3</v>
       </c>
-      <c r="T40" s="1" t="n">
+      <c r="V40" s="1" t="n">
         <v>35.7</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="W40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V40" s="1" t="n">
+      <c r="X40" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="W40" s="1" t="n">
+      <c r="Y40" s="1" t="n">
         <v>22.1</v>
       </c>
-      <c r="X40" s="1" t="n">
+      <c r="Z40" s="1" t="n">
         <v>40.9</v>
       </c>
-      <c r="Y40" s="1" t="n">
+      <c r="AA40" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Z40" s="1" t="n">
+      <c r="AB40" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="AA40" s="1" t="n">
+      <c r="AC40" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD40" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB40" s="1" t="n">
+      <c r="AE40" s="1" t="n">
         <v>2343.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>29.5</v>
@@ -3892,69 +4243,78 @@
         <v>16.2</v>
       </c>
       <c r="I41" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="J41" s="1" t="n">
+      <c r="K41" s="1" t="n">
         <v>2615.1</v>
       </c>
-      <c r="K41" s="1" t="n">
+      <c r="L41" s="1" t="n">
         <v>28.5</v>
       </c>
-      <c r="L41" s="1" t="n">
+      <c r="M41" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="M41" s="1" t="n">
+      <c r="N41" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="O41" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="O41" s="1" t="n">
+      <c r="P41" s="1" t="n">
         <v>40.1</v>
       </c>
-      <c r="P41" s="1" t="n">
+      <c r="Q41" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="Q41" s="1" t="n">
+      <c r="R41" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="R41" s="1" t="n">
+      <c r="S41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="S41" s="1" t="n">
+      <c r="U41" s="1" t="n">
         <v>2067.7</v>
       </c>
-      <c r="T41" s="1" t="n">
+      <c r="V41" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="U41" s="1" t="n">
+      <c r="W41" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V41" s="1" t="n">
+      <c r="X41" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="W41" s="1" t="n">
+      <c r="Y41" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="X41" s="1" t="n">
+      <c r="Z41" s="1" t="n">
         <v>39.6</v>
       </c>
-      <c r="Y41" s="1" t="n">
+      <c r="AA41" s="1" t="n">
         <v>63.4</v>
       </c>
-      <c r="Z41" s="1" t="n">
+      <c r="AB41" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="AA41" s="1" t="n">
+      <c r="AC41" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD41" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB41" s="1" t="n">
+      <c r="AE41" s="1" t="n">
         <v>2341.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>36</v>
@@ -3978,69 +4338,78 @@
         <v>12.7</v>
       </c>
       <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="J42" s="1" t="n">
+      <c r="K42" s="1" t="n">
         <v>2570.1</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="L42" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="L42" s="1" t="n">
+      <c r="M42" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="M42" s="1" t="n">
+      <c r="N42" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="O42" s="1" t="n">
         <v>20.3</v>
       </c>
-      <c r="O42" s="1" t="n">
+      <c r="P42" s="1" t="n">
         <v>44.7</v>
       </c>
-      <c r="P42" s="1" t="n">
+      <c r="Q42" s="1" t="n">
         <v>65.1</v>
       </c>
-      <c r="Q42" s="1" t="n">
+      <c r="R42" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="R42" s="1" t="n">
+      <c r="S42" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T42" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="S42" s="1" t="n">
+      <c r="U42" s="1" t="n">
         <v>1856.5</v>
       </c>
-      <c r="T42" s="1" t="n">
+      <c r="V42" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="U42" s="1" t="n">
+      <c r="W42" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="V42" s="1" t="n">
+      <c r="X42" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W42" s="1" t="n">
+      <c r="Y42" s="1" t="n">
         <v>21.1</v>
       </c>
-      <c r="X42" s="1" t="n">
+      <c r="Z42" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="Y42" s="1" t="n">
+      <c r="AA42" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="Z42" s="1" t="n">
+      <c r="AB42" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="AA42" s="1" t="n">
+      <c r="AC42" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD42" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="AB42" s="1" t="n">
+      <c r="AE42" s="1" t="n">
         <v>2213.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>36.5</v>
@@ -4064,71 +4433,80 @@
         <v>15.9</v>
       </c>
       <c r="I43" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="K43" s="1" t="n">
         <v>2609</v>
       </c>
-      <c r="K43" s="1" t="n">
+      <c r="L43" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="M43" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="M43" s="1" t="n">
+      <c r="N43" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="O43" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="P43" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="Q43" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="Q43" s="1" t="n">
+      <c r="R43" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="R43" s="1" t="n">
+      <c r="S43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="U43" s="1" t="n">
         <v>1756.6</v>
       </c>
-      <c r="T43" s="1" t="n">
+      <c r="V43" s="1" t="n">
         <v>39.5</v>
       </c>
-      <c r="U43" s="1" t="n">
+      <c r="W43" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="V43" s="1" t="n">
+      <c r="X43" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="W43" s="1" t="n">
+      <c r="Y43" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="X43" s="1" t="n">
+      <c r="Z43" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="Y43" s="1" t="n">
+      <c r="AA43" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Z43" s="1" t="n">
+      <c r="AB43" s="1" t="n">
         <v>15.6</v>
       </c>
-      <c r="AA43" s="1" t="n">
+      <c r="AC43" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD43" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="AB43" s="1" t="n">
+      <c r="AE43" s="1" t="n">
         <v>2182.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
